--- a/docker/ccd-definition-import/data/CCD_Definition_CMC.xlsx
+++ b/docker/ccd-definition-import/data/CCD_Definition_CMC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21600" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="AuthorisationCaseEvent" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ComplexTypes!$A$3:$M$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ComplexTypes!$A$3:$M$122</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="386">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -471,9 +471,6 @@
     <t>amountRange</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Interest</t>
   </si>
   <si>
@@ -1157,6 +1154,54 @@
   </si>
   <si>
     <t>NOT_KNOWN</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>DIFFERENT</t>
+  </si>
+  <si>
+    <t>NO_INTEREST</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>no interest</t>
+  </si>
+  <si>
+    <t>CUSTOM</t>
+  </si>
+  <si>
+    <t>SUBMISSION</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>notKnown</t>
+  </si>
+  <si>
+    <t>amountBreakDown</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>AmountRow</t>
+  </si>
+  <si>
+    <t>YesOrNo</t>
+  </si>
+  <si>
+    <t>line3</t>
   </si>
 </sst>
 </file>
@@ -1351,14 +1396,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1448,14 +1511,30 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2046,7 +2125,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="17">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2121,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>87</v>
@@ -2167,10 +2246,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="5" t="s">
@@ -2192,10 +2271,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="5" t="s">
@@ -2217,13 +2296,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>94</v>
@@ -2244,14 +2323,14 @@
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -2269,13 +2348,13 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>94</v>
@@ -2296,10 +2375,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
@@ -2321,14 +2400,14 @@
         <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2346,13 +2425,13 @@
         <v>37</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>94</v>
@@ -2385,10 +2464,10 @@
         <v>37</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29" t="s">
@@ -2410,10 +2489,10 @@
         <v>37</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
@@ -2435,16 +2514,16 @@
         <v>37</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2462,16 +2541,16 @@
         <v>37</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -2489,13 +2568,13 @@
         <v>37</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>131</v>
@@ -2516,13 +2595,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>94</v>
@@ -2543,14 +2622,14 @@
         <v>37</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2568,13 +2647,13 @@
         <v>37</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>94</v>
@@ -2607,14 +2686,14 @@
         <v>37</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2632,13 +2711,13 @@
         <v>37</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>94</v>
@@ -2659,14 +2738,14 @@
         <v>37</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2684,13 +2763,13 @@
         <v>37</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>94</v>
@@ -2708,13 +2787,13 @@
         <v>37</v>
       </c>
       <c r="D24" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>286</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>287</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>131</v>
@@ -2776,7 +2855,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2801,13 +2880,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -2831,10 +2910,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>43</v>
@@ -2859,10 +2938,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="44">
         <v>1</v>
@@ -2887,10 +2966,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" s="44">
         <v>2</v>
@@ -3236,7 +3315,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="17">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="9" t="s">
@@ -3267,16 +3346,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>290</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>291</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
@@ -3300,22 +3379,22 @@
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3338,16 +3417,16 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -3373,16 +3452,16 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -3398,16 +3477,16 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -3423,16 +3502,16 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -3448,16 +3527,16 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -3473,16 +3552,16 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -3498,16 +3577,16 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>298</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
@@ -3523,16 +3602,16 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>299</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>300</v>
       </c>
       <c r="G11" s="29">
         <v>2</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="35">
         <v>1</v>
@@ -3548,16 +3627,16 @@
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>299</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>300</v>
       </c>
       <c r="G12" s="29">
         <v>2</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I12" s="35">
         <v>2</v>
@@ -3573,16 +3652,16 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>299</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>300</v>
       </c>
       <c r="G13" s="29">
         <v>2</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="35">
         <v>3</v>
@@ -3598,16 +3677,16 @@
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="G14" s="29">
         <v>2</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14" s="35">
         <v>4</v>
@@ -3623,16 +3702,16 @@
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="G15" s="29">
         <v>2</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I15" s="35">
         <v>5</v>
@@ -3648,16 +3727,16 @@
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="G16" s="29">
         <v>2</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I16" s="35">
         <v>6</v>
@@ -3673,16 +3752,16 @@
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="G17" s="29">
         <v>2</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I17" s="35">
         <v>7</v>
@@ -3698,16 +3777,16 @@
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>302</v>
       </c>
       <c r="G18" s="29">
         <v>3</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I18" s="35">
         <v>1</v>
@@ -3723,16 +3802,16 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>303</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>304</v>
       </c>
       <c r="G19" s="29">
         <v>4</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I19" s="35">
         <v>1</v>
@@ -3748,16 +3827,16 @@
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>303</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>304</v>
       </c>
       <c r="G20" s="29">
         <v>4</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I20" s="35">
         <v>2</v>
@@ -3773,16 +3852,16 @@
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>305</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>306</v>
       </c>
       <c r="G21" s="29">
         <v>6</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I21" s="35">
         <v>1</v>
@@ -3798,16 +3877,16 @@
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>305</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>306</v>
       </c>
       <c r="G22" s="29">
         <v>6</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I22" s="35">
         <v>2</v>
@@ -3823,16 +3902,16 @@
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>305</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>306</v>
       </c>
       <c r="G23" s="29">
         <v>6</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I23" s="35">
         <v>3</v>
@@ -3848,16 +3927,16 @@
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>312</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>313</v>
       </c>
       <c r="G24" s="37">
         <v>7</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" s="32">
         <v>1</v>
@@ -3873,16 +3952,16 @@
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>312</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>313</v>
       </c>
       <c r="G25" s="37">
         <v>7</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I25" s="32">
         <v>2</v>
@@ -3898,16 +3977,16 @@
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>312</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>313</v>
       </c>
       <c r="G26" s="37">
         <v>7</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I26" s="32">
         <v>3</v>
@@ -3923,16 +4002,16 @@
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>316</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>317</v>
       </c>
       <c r="G27" s="37">
         <v>8</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" s="32">
         <v>1</v>
@@ -3979,7 +4058,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4015,16 +4094,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -4042,7 +4121,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -4051,7 +4130,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1">
@@ -4059,7 +4138,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -4068,7 +4147,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.75" customHeight="1">
@@ -4076,7 +4155,7 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -4085,7 +4164,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="12.75" customHeight="1">
@@ -4094,7 +4173,7 @@
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>12</v>
@@ -4103,7 +4182,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.75" customHeight="1">
@@ -4112,7 +4191,7 @@
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>12</v>
@@ -4121,7 +4200,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" customHeight="1">
@@ -4130,7 +4209,7 @@
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>12</v>
@@ -4139,7 +4218,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" customHeight="1">
@@ -4148,7 +4227,7 @@
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>12</v>
@@ -4157,7 +4236,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1">
@@ -4166,7 +4245,7 @@
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>12</v>
@@ -4175,7 +4254,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" customHeight="1">
@@ -4184,7 +4263,7 @@
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>12</v>
@@ -4193,7 +4272,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1">
@@ -4202,7 +4281,7 @@
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>12</v>
@@ -4211,7 +4290,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1">
@@ -4220,7 +4299,7 @@
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>12</v>
@@ -4229,7 +4308,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1">
@@ -4238,7 +4317,7 @@
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>12</v>
@@ -4247,7 +4326,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1">
@@ -4256,7 +4335,7 @@
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>12</v>
@@ -4265,7 +4344,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
@@ -4274,7 +4353,7 @@
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>12</v>
@@ -4283,7 +4362,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1">
@@ -4292,7 +4371,7 @@
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>12</v>
@@ -4301,7 +4380,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
@@ -4310,7 +4389,7 @@
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>12</v>
@@ -4319,7 +4398,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
@@ -4328,7 +4407,7 @@
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>12</v>
@@ -4337,7 +4416,7 @@
         <v>37</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
@@ -4346,7 +4425,7 @@
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>12</v>
@@ -4355,7 +4434,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12">
@@ -4364,7 +4443,7 @@
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>12</v>
@@ -4373,7 +4452,7 @@
         <v>37</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12">
@@ -4382,7 +4461,7 @@
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>12</v>
@@ -4391,7 +4470,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12">
@@ -4400,7 +4479,7 @@
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>12</v>
@@ -4409,7 +4488,7 @@
         <v>37</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12">
@@ -4418,7 +4497,7 @@
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>12</v>
@@ -4427,7 +4506,7 @@
         <v>37</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12">
@@ -4436,7 +4515,7 @@
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>12</v>
@@ -4445,7 +4524,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12">
@@ -4454,7 +4533,7 @@
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>12</v>
@@ -4463,7 +4542,7 @@
         <v>37</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
@@ -4472,7 +4551,7 @@
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>12</v>
@@ -4481,7 +4560,7 @@
         <v>37</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
@@ -4490,7 +4569,7 @@
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>12</v>
@@ -4499,7 +4578,7 @@
         <v>37</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
@@ -4508,7 +4587,7 @@
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>12</v>
@@ -4517,7 +4596,7 @@
         <v>37</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
@@ -4526,7 +4605,7 @@
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>12</v>
@@ -4535,7 +4614,7 @@
         <v>37</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
@@ -4544,7 +4623,7 @@
       </c>
       <c r="B32" s="37"/>
       <c r="C32" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>12</v>
@@ -4553,7 +4632,7 @@
         <v>37</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1">
@@ -4562,7 +4641,7 @@
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>12</v>
@@ -4571,7 +4650,7 @@
         <v>37</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
@@ -4580,7 +4659,7 @@
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>12</v>
@@ -4589,7 +4668,7 @@
         <v>37</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1">
@@ -4598,7 +4677,7 @@
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>12</v>
@@ -4607,7 +4686,7 @@
         <v>37</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
@@ -4616,7 +4695,7 @@
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>12</v>
@@ -4625,7 +4704,7 @@
         <v>37</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1">
@@ -4634,7 +4713,7 @@
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>12</v>
@@ -4643,7 +4722,7 @@
         <v>37</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4676,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4701,10 +4780,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>352</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>353</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
@@ -4725,13 +4804,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>355</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
@@ -4741,10 +4820,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
@@ -4754,10 +4833,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
@@ -4767,10 +4846,10 @@
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
@@ -4808,7 +4887,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4838,7 +4917,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4859,16 +4938,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>355</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4886,13 +4965,13 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
@@ -4900,13 +4979,13 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
@@ -4914,13 +4993,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
@@ -4928,13 +5007,13 @@
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
@@ -4942,13 +5021,13 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
@@ -4956,13 +5035,13 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
@@ -4970,13 +5049,13 @@
         <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
@@ -4984,13 +5063,13 @@
         <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
@@ -4998,13 +5077,13 @@
         <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
@@ -5012,13 +5091,13 @@
         <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
@@ -5026,13 +5105,13 @@
         <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
@@ -5040,13 +5119,13 @@
         <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
@@ -5054,13 +5133,13 @@
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="15" customHeight="1">
@@ -5068,13 +5147,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="15" customHeight="1">
@@ -5082,13 +5161,13 @@
         <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="15" customHeight="1">
@@ -5096,13 +5175,13 @@
         <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="15" customHeight="1">
@@ -5110,13 +5189,13 @@
         <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="15" customHeight="1">
@@ -5124,13 +5203,13 @@
         <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="15" customHeight="1">
@@ -5138,13 +5217,13 @@
         <v>37</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="15" customHeight="1">
@@ -5152,13 +5231,13 @@
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="15" customHeight="1">
@@ -5166,13 +5245,13 @@
         <v>37</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="15" customHeight="1">
@@ -5180,13 +5259,13 @@
         <v>37</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="15" customHeight="1">
@@ -5194,13 +5273,13 @@
         <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="15" customHeight="1">
@@ -5208,13 +5287,13 @@
         <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="15" customHeight="1">
@@ -5222,13 +5301,13 @@
         <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="15" customHeight="1">
@@ -5236,13 +5315,13 @@
         <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="15" customHeight="1">
@@ -5250,13 +5329,13 @@
         <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="15" customHeight="1">
@@ -5264,13 +5343,13 @@
         <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="15" customHeight="1">
@@ -5278,13 +5357,13 @@
         <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15" customHeight="1">
@@ -5292,13 +5371,13 @@
         <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15" customHeight="1">
@@ -5306,13 +5385,13 @@
         <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15" customHeight="1">
@@ -5320,13 +5399,13 @@
         <v>37</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15" customHeight="1">
@@ -5334,13 +5413,13 @@
         <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15" customHeight="1">
@@ -5348,13 +5427,13 @@
         <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="15" customHeight="1">
@@ -5362,13 +5441,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="15" customHeight="1">
@@ -5376,13 +5455,13 @@
         <v>37</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="15" customHeight="1">
@@ -5390,13 +5469,13 @@
         <v>37</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="15" customHeight="1">
@@ -5404,13 +5483,13 @@
         <v>37</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="15" customHeight="1">
@@ -5418,13 +5497,13 @@
         <v>37</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="15" customHeight="1">
@@ -5432,13 +5511,13 @@
         <v>37</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="15" customHeight="1">
@@ -5446,13 +5525,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="15" customHeight="1">
@@ -5460,13 +5539,13 @@
         <v>37</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="15" customHeight="1">
@@ -5474,13 +5553,13 @@
         <v>37</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="15" customHeight="1">
@@ -5488,13 +5567,13 @@
         <v>37</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="15" customHeight="1">
@@ -5502,13 +5581,13 @@
         <v>37</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="15" customHeight="1">
@@ -5516,13 +5595,13 @@
         <v>37</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15" customHeight="1">
@@ -5530,13 +5609,13 @@
         <v>37</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15" customHeight="1">
@@ -5544,13 +5623,13 @@
         <v>37</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="15" customHeight="1">
@@ -5558,13 +5637,13 @@
         <v>37</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="15" customHeight="1">
@@ -5572,13 +5651,13 @@
         <v>37</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="15" customHeight="1">
@@ -5586,13 +5665,13 @@
         <v>37</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="15" customHeight="1">
@@ -5600,13 +5679,13 @@
         <v>37</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="15" customHeight="1">
@@ -5614,13 +5693,13 @@
         <v>37</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="15" customHeight="1">
@@ -5628,13 +5707,13 @@
         <v>37</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="15" customHeight="1">
@@ -5642,13 +5721,13 @@
         <v>37</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="15" customHeight="1">
@@ -5656,13 +5735,13 @@
         <v>37</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="15" customHeight="1">
@@ -5670,13 +5749,13 @@
         <v>37</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="15" customHeight="1">
@@ -5684,13 +5763,13 @@
         <v>37</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15" customHeight="1">
@@ -5698,13 +5777,13 @@
         <v>37</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="15" customHeight="1">
@@ -5712,13 +5791,13 @@
         <v>37</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="15" customHeight="1">
@@ -5726,13 +5805,13 @@
         <v>37</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="15" customHeight="1">
@@ -5740,13 +5819,13 @@
         <v>37</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5777,7 +5856,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5805,10 +5884,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -5829,16 +5908,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>355</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -5858,13 +5937,13 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
@@ -5874,13 +5953,13 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
@@ -5890,13 +5969,13 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
@@ -5906,13 +5985,13 @@
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
@@ -5922,13 +6001,13 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
@@ -5938,13 +6017,13 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
@@ -5954,13 +6033,13 @@
         <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
@@ -5970,13 +6049,13 @@
         <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
@@ -5986,13 +6065,13 @@
         <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
@@ -6002,13 +6081,13 @@
         <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
@@ -6018,13 +6097,13 @@
         <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
@@ -6034,13 +6113,13 @@
         <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
@@ -6050,13 +6129,13 @@
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
@@ -6066,13 +6145,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
@@ -6080,13 +6159,13 @@
         <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -6094,13 +6173,13 @@
         <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
@@ -6108,13 +6187,13 @@
         <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
@@ -6122,13 +6201,13 @@
         <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
@@ -6136,13 +6215,13 @@
         <v>37</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
@@ -6150,13 +6229,13 @@
         <v>37</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
@@ -6164,13 +6243,13 @@
         <v>37</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
@@ -6178,13 +6257,13 @@
         <v>37</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
@@ -6192,13 +6271,13 @@
         <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
@@ -6206,13 +6285,13 @@
         <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
@@ -6220,13 +6299,13 @@
         <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
@@ -6237,10 +6316,10 @@
         <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
@@ -6251,10 +6330,10 @@
         <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1">
@@ -6265,10 +6344,10 @@
         <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
@@ -6279,10 +6358,10 @@
         <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="15" customHeight="1">
@@ -6293,10 +6372,10 @@
         <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="15" customHeight="1">
@@ -6307,10 +6386,10 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="15" customHeight="1">
@@ -6321,10 +6400,10 @@
         <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="15" customHeight="1">
@@ -6335,10 +6414,10 @@
         <v>74</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="15" customHeight="1">
@@ -6349,10 +6428,10 @@
         <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="15" customHeight="1">
@@ -6360,13 +6439,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="15" customHeight="1">
@@ -6374,13 +6453,13 @@
         <v>37</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="15" customHeight="1">
@@ -6388,13 +6467,13 @@
         <v>37</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="15" customHeight="1">
@@ -6402,13 +6481,13 @@
         <v>37</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="15" customHeight="1">
@@ -6416,13 +6495,13 @@
         <v>37</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="15" customHeight="1">
@@ -6430,13 +6509,13 @@
         <v>37</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="15" customHeight="1">
@@ -6444,13 +6523,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="15" customHeight="1">
@@ -6458,13 +6537,13 @@
         <v>37</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="15" customHeight="1">
@@ -6472,13 +6551,13 @@
         <v>37</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="15" customHeight="1">
@@ -6486,13 +6565,13 @@
         <v>37</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="3:6" ht="15" customHeight="1">
@@ -6500,13 +6579,13 @@
         <v>37</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="15" customHeight="1">
@@ -6514,13 +6593,13 @@
         <v>37</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="15" customHeight="1">
@@ -6528,13 +6607,13 @@
         <v>37</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="15" customHeight="1">
@@ -6542,13 +6621,13 @@
         <v>37</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="15" customHeight="1">
@@ -6556,13 +6635,13 @@
         <v>37</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="15" customHeight="1">
@@ -6570,13 +6649,13 @@
         <v>37</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="15" customHeight="1">
@@ -6584,13 +6663,13 @@
         <v>37</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="15" customHeight="1">
@@ -6598,13 +6677,13 @@
         <v>37</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="15" customHeight="1">
@@ -6612,13 +6691,13 @@
         <v>37</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="15" customHeight="1">
@@ -6626,13 +6705,13 @@
         <v>37</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="15" customHeight="1">
@@ -6640,13 +6719,13 @@
         <v>37</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="15" customHeight="1">
@@ -6654,13 +6733,13 @@
         <v>37</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="15" customHeight="1">
@@ -6668,13 +6747,13 @@
         <v>37</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="3:6" ht="15" customHeight="1">
@@ -6682,13 +6761,13 @@
         <v>37</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="3:6" ht="15" customHeight="1">
@@ -6696,13 +6775,13 @@
         <v>37</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="15" customHeight="1">
@@ -6713,10 +6792,10 @@
         <v>59</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="3:6" ht="15" customHeight="1">
@@ -6727,10 +6806,10 @@
         <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="15" customHeight="1">
@@ -6741,10 +6820,10 @@
         <v>64</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="15" customHeight="1">
@@ -6755,10 +6834,10 @@
         <v>66</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="15" customHeight="1">
@@ -6769,10 +6848,10 @@
         <v>68</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="15" customHeight="1">
@@ -6783,10 +6862,10 @@
         <v>70</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="15" customHeight="1">
@@ -6797,10 +6876,10 @@
         <v>72</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="15" customHeight="1">
@@ -6811,10 +6890,10 @@
         <v>74</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="15" customHeight="1">
@@ -6825,10 +6904,10 @@
         <v>76</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="15" customHeight="1">
@@ -6836,13 +6915,13 @@
         <v>37</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="3:6" ht="15" customHeight="1">
@@ -6850,13 +6929,13 @@
         <v>37</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="15" customHeight="1">
@@ -6864,13 +6943,13 @@
         <v>37</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="15" customHeight="1">
@@ -6878,13 +6957,13 @@
         <v>37</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="15" customHeight="1">
@@ -6892,13 +6971,13 @@
         <v>37</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="15" customHeight="1">
@@ -6906,13 +6985,13 @@
         <v>37</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="3:6" ht="15" customHeight="1">
@@ -6920,13 +6999,13 @@
         <v>37</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="3:6" ht="15" customHeight="1">
@@ -6934,13 +7013,13 @@
         <v>37</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="15" customHeight="1">
@@ -6948,13 +7027,13 @@
         <v>37</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="15" customHeight="1">
@@ -6962,13 +7041,13 @@
         <v>37</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="3:6" ht="15" customHeight="1">
@@ -6976,13 +7055,13 @@
         <v>37</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="3:6" ht="15" customHeight="1">
@@ -6990,13 +7069,13 @@
         <v>37</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="15" customHeight="1">
@@ -7004,13 +7083,13 @@
         <v>37</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="15" customHeight="1">
@@ -7018,13 +7097,13 @@
         <v>37</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="3:6" ht="15" customHeight="1">
@@ -7032,13 +7111,13 @@
         <v>37</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="15" customHeight="1">
@@ -7046,13 +7125,13 @@
         <v>37</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="15" customHeight="1">
@@ -7060,13 +7139,13 @@
         <v>37</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="3:6" ht="15" customHeight="1">
@@ -7074,13 +7153,13 @@
         <v>37</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="3:6" ht="15" customHeight="1">
@@ -7088,13 +7167,13 @@
         <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="3:6" ht="15" customHeight="1">
@@ -7102,13 +7181,13 @@
         <v>37</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="3:6" ht="15" customHeight="1">
@@ -7116,13 +7195,13 @@
         <v>37</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="3:6" ht="15" customHeight="1">
@@ -7130,13 +7209,13 @@
         <v>37</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="3:6" ht="15" customHeight="1">
@@ -7144,13 +7223,13 @@
         <v>37</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="3:6" ht="15" customHeight="1">
@@ -7158,13 +7237,13 @@
         <v>37</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="3:6" ht="15" customHeight="1">
@@ -7172,13 +7251,13 @@
         <v>37</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="15" customHeight="1">
@@ -7186,13 +7265,13 @@
         <v>37</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="3:6" ht="15" customHeight="1">
@@ -7203,10 +7282,10 @@
         <v>59</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="3:6" ht="15" customHeight="1">
@@ -7217,10 +7296,10 @@
         <v>62</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="3:6" ht="15" customHeight="1">
@@ -7231,10 +7310,10 @@
         <v>64</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="15" customHeight="1">
@@ -7245,10 +7324,10 @@
         <v>66</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="15" customHeight="1">
@@ -7259,10 +7338,10 @@
         <v>68</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="3:6" ht="15" customHeight="1">
@@ -7273,10 +7352,10 @@
         <v>70</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="3:6" ht="15" customHeight="1">
@@ -7287,10 +7366,10 @@
         <v>72</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="3:6" ht="15" customHeight="1">
@@ -7301,10 +7380,10 @@
         <v>74</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="3:6" ht="15" customHeight="1">
@@ -7315,10 +7394,10 @@
         <v>76</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="107" spans="3:6" ht="15" customHeight="1">
@@ -7326,13 +7405,13 @@
         <v>37</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7636,10 +7715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" activeCellId="1" sqref="C13 E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -7776,38 +7855,93 @@
     <row r="8" spans="1:15" ht="12.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="62" t="s">
         <v>365</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>369</v>
+      <c r="C9" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="C10" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
+      <c r="C11" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E10" s="62" t="s">
-        <v>367</v>
+      <c r="E11" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1">
+      <c r="C12" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1">
+      <c r="C13" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1">
+      <c r="C14" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1">
+      <c r="C15" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7820,6 +7954,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7830,11 +7965,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W115"/>
+  <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -8067,7 +8202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="12.75" customHeight="1">
+    <row r="8" spans="1:23" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -8101,13 +8236,13 @@
         <v>97</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -8126,13 +8261,13 @@
         <v>97</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -8148,16 +8283,16 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -8176,13 +8311,13 @@
         <v>102</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -8201,13 +8336,13 @@
         <v>102</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -8221,18 +8356,18 @@
       <c r="A14" s="10">
         <v>42736</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -8242,22 +8377,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="12">
+    <row r="15" spans="1:23" ht="12.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -8266,35 +8401,23 @@
       <c r="K15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" ht="12.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:23" ht="12">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>107</v>
+      <c r="D16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -8303,23 +8426,40 @@
       <c r="K16" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="12">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
+      <c r="B17" s="17"/>
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="F17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5" t="s">
         <v>39</v>
       </c>
@@ -8332,13 +8472,13 @@
         <v>21</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>39</v>
@@ -8352,13 +8492,13 @@
         <v>21</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>39</v>
@@ -8372,13 +8512,13 @@
         <v>21</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>39</v>
@@ -8392,13 +8532,13 @@
         <v>21</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>39</v>
@@ -8409,16 +8549,16 @@
         <v>42736</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>39</v>
@@ -8431,14 +8571,14 @@
       <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>107</v>
+      <c r="D23" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>39</v>
@@ -8451,14 +8591,14 @@
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>108</v>
+      <c r="F24" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>39</v>
@@ -8472,13 +8612,13 @@
         <v>25</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>39</v>
@@ -8492,13 +8632,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>39</v>
@@ -8512,13 +8652,13 @@
         <v>25</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>39</v>
@@ -8532,13 +8672,13 @@
         <v>25</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>39</v>
@@ -8552,13 +8692,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>39</v>
@@ -8569,16 +8709,16 @@
         <v>42736</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>39</v>
@@ -8591,14 +8731,14 @@
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>107</v>
+      <c r="D31" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>39</v>
@@ -8611,14 +8751,14 @@
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="D32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>108</v>
+      <c r="F32" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>39</v>
@@ -8632,13 +8772,13 @@
         <v>23</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>39</v>
@@ -8652,13 +8792,13 @@
         <v>23</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>39</v>
@@ -8672,13 +8812,13 @@
         <v>23</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>39</v>
@@ -8692,13 +8832,13 @@
         <v>23</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>39</v>
@@ -8712,13 +8852,13 @@
         <v>23</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>39</v>
@@ -8729,16 +8869,16 @@
         <v>42736</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>39</v>
@@ -8751,14 +8891,14 @@
       <c r="C39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>107</v>
+      <c r="D39" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>39</v>
@@ -8771,14 +8911,14 @@
       <c r="C40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>108</v>
+      <c r="F40" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>39</v>
@@ -8792,13 +8932,13 @@
         <v>27</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>39</v>
@@ -8812,13 +8952,13 @@
         <v>27</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>39</v>
@@ -8832,13 +8972,13 @@
         <v>27</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>39</v>
@@ -8852,13 +8992,13 @@
         <v>27</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>39</v>
@@ -8868,20 +9008,17 @@
       <c r="A45" s="10">
         <v>42736</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>116</v>
+      <c r="C45" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>39</v>
@@ -8891,17 +9028,20 @@
       <c r="A46" s="10">
         <v>42736</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>120</v>
+      <c r="D46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>39</v>
@@ -8915,13 +9055,13 @@
         <v>116</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>39</v>
@@ -8935,13 +9075,13 @@
         <v>116</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>39</v>
@@ -8955,13 +9095,13 @@
         <v>116</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>39</v>
@@ -8971,17 +9111,17 @@
       <c r="A50" s="10">
         <v>42736</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>95</v>
+      <c r="D50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>39</v>
@@ -8995,13 +9135,13 @@
         <v>116</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>39</v>
@@ -9012,16 +9152,16 @@
         <v>42736</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>39</v>
@@ -9035,54 +9175,37 @@
         <v>125</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="12">
+      <c r="A54" s="10">
+        <v>42736</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="12">
-      <c r="A54" s="31">
-        <v>42736</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="F54" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="K54" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
     </row>
     <row r="55" spans="1:23" ht="12">
       <c r="A55" s="31">
@@ -9093,13 +9216,13 @@
         <v>128</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -9127,16 +9250,16 @@
       </c>
       <c r="B56" s="32"/>
       <c r="C56" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G56" s="32"/>
       <c r="H56" s="32"/>
@@ -9158,7 +9281,7 @@
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57" spans="1:23" ht="12">
+    <row r="57" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A57" s="31">
         <v>42736</v>
       </c>
@@ -9167,13 +9290,13 @@
         <v>132</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="E57" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -9204,13 +9327,13 @@
         <v>132</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
@@ -9241,13 +9364,13 @@
         <v>132</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
@@ -9278,13 +9401,13 @@
         <v>132</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
@@ -9312,16 +9435,16 @@
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
@@ -9349,16 +9472,16 @@
       </c>
       <c r="B62" s="32"/>
       <c r="C62" s="32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
@@ -9380,28 +9503,26 @@
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
     </row>
-    <row r="63" spans="1:23" ht="12">
+    <row r="63" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A63" s="31">
         <v>42736</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
-      <c r="I63" s="32" t="s">
-        <v>365</v>
-      </c>
+      <c r="I63" s="32"/>
       <c r="J63" s="32"/>
       <c r="K63" s="5" t="s">
         <v>39</v>
@@ -9419,22 +9540,22 @@
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
     </row>
-    <row r="64" spans="1:23" ht="12">
+    <row r="64" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A64" s="31">
         <v>42736</v>
       </c>
       <c r="B64" s="32"/>
       <c r="C64" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
@@ -9462,22 +9583,20 @@
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="32" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>118</v>
+        <v>145</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
-      <c r="I65" s="32" t="s">
-        <v>363</v>
-      </c>
+      <c r="I65" s="32"/>
       <c r="J65" s="32"/>
       <c r="K65" s="5" t="s">
         <v>39</v>
@@ -9501,16 +9620,16 @@
       </c>
       <c r="B66" s="32"/>
       <c r="C66" s="32" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>131</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G66" s="32"/>
       <c r="H66" s="32"/>
@@ -9532,26 +9651,28 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" ht="12">
+    <row r="67" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A67" s="31">
         <v>42736</v>
       </c>
       <c r="B67" s="32"/>
       <c r="C67" s="32" t="s">
-        <v>144</v>
+        <v>365</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
+      <c r="I67" s="32" t="s">
+        <v>383</v>
+      </c>
       <c r="J67" s="32"/>
       <c r="K67" s="5" t="s">
         <v>39</v>
@@ -9569,18 +9690,18 @@
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
     </row>
-    <row r="68" spans="1:23" ht="12">
+    <row r="68" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A68" s="31">
         <v>42736</v>
       </c>
       <c r="B68" s="32"/>
       <c r="C68" s="32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D68" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="32" t="s">
         <v>118</v>
       </c>
       <c r="F68" s="32" t="s">
@@ -9608,22 +9729,22 @@
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
     </row>
-    <row r="69" spans="1:23" ht="12">
+    <row r="69" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A69" s="31">
         <v>42736</v>
       </c>
       <c r="B69" s="32"/>
       <c r="C69" s="32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
@@ -9645,22 +9766,22 @@
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
     </row>
-    <row r="70" spans="1:23" ht="12">
+    <row r="70" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A70" s="31">
         <v>42736</v>
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>94</v>
+        <v>365</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -9682,22 +9803,22 @@
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
     </row>
-    <row r="71" spans="1:23" ht="12">
+    <row r="71" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A71" s="31">
-        <v>42737</v>
+        <v>42736</v>
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="32" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>151</v>
+        <v>380</v>
       </c>
       <c r="E71" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>151</v>
+        <v>380</v>
       </c>
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
@@ -9719,26 +9840,28 @@
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
     </row>
-    <row r="72" spans="1:23" ht="12">
+    <row r="72" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A72" s="31">
         <v>42736</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="G72" s="32"/>
       <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
+      <c r="I72" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="J72" s="32"/>
       <c r="K72" s="5" t="s">
         <v>39</v>
@@ -9756,22 +9879,22 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
     </row>
-    <row r="73" spans="1:23" ht="12">
+    <row r="73" spans="1:23" s="18" customFormat="1" ht="12">
       <c r="A73" s="31">
         <v>42736</v>
       </c>
       <c r="B73" s="32"/>
       <c r="C73" s="32" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G73" s="32"/>
       <c r="H73" s="32"/>
@@ -9799,16 +9922,16 @@
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -9836,21 +9959,21 @@
       </c>
       <c r="B75" s="32"/>
       <c r="C75" s="32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>159</v>
+        <v>117</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="G75" s="32"/>
       <c r="H75" s="32"/>
       <c r="I75" s="32" t="s">
-        <v>94</v>
+        <v>363</v>
       </c>
       <c r="J75" s="32"/>
       <c r="K75" s="5" t="s">
@@ -9875,16 +9998,16 @@
       </c>
       <c r="B76" s="32"/>
       <c r="C76" s="32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
@@ -9912,16 +10035,16 @@
       </c>
       <c r="B77" s="32"/>
       <c r="C77" s="32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -9945,20 +10068,20 @@
     </row>
     <row r="78" spans="1:23" ht="12">
       <c r="A78" s="31">
-        <v>42736</v>
+        <v>42737</v>
       </c>
       <c r="B78" s="32"/>
       <c r="C78" s="32" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G78" s="32"/>
       <c r="H78" s="32"/>
@@ -9981,31 +10104,31 @@
       <c r="W78" s="5"/>
     </row>
     <row r="79" spans="1:23" ht="12">
-      <c r="A79" s="33">
-        <v>42736</v>
-      </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
+      <c r="A79" s="31">
+        <v>42736</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
       <c r="K79" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -10019,20 +10142,20 @@
     </row>
     <row r="80" spans="1:23" ht="12">
       <c r="A80" s="31">
-        <v>42737</v>
+        <v>42736</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="32" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E80" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
@@ -10043,33 +10166,33 @@
       </c>
       <c r="L80" s="32"/>
       <c r="M80" s="32"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
     </row>
     <row r="81" spans="1:23" ht="12">
       <c r="A81" s="31">
-        <v>42737</v>
+        <v>42736</v>
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="32" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
@@ -10080,43 +10203,45 @@
       </c>
       <c r="L81" s="32"/>
       <c r="M81" s="32"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
     </row>
     <row r="82" spans="1:23" ht="12">
       <c r="A82" s="31">
-        <v>42738</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E82" s="13" t="s">
+        <v>42736</v>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
+      <c r="J82" s="32"/>
       <c r="K82" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -10128,32 +10253,32 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
     </row>
-    <row r="83" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A83" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+    <row r="83" spans="1:23" ht="12">
+      <c r="A83" s="31">
+        <v>42736</v>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
       <c r="K83" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -10165,159 +10290,227 @@
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
     </row>
-    <row r="84" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A84" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E84" s="5" t="s">
+    <row r="84" spans="1:23" ht="12">
+      <c r="A84" s="31">
+        <v>42736</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J84" s="5"/>
+      <c r="E84" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
       <c r="K84" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A85" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J85" s="5"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="1:23" ht="12">
+      <c r="A85" s="31">
+        <v>42736</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
       <c r="K85" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A86" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+    </row>
+    <row r="86" spans="1:23" ht="12">
+      <c r="A86" s="33">
+        <v>42736</v>
+      </c>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
       <c r="K86" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A87" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87" s="13" t="s">
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+    </row>
+    <row r="87" spans="1:23" ht="12">
+      <c r="A87" s="31">
+        <v>42737</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+    </row>
+    <row r="88" spans="1:23" ht="12">
+      <c r="A88" s="31">
+        <v>42737</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+    </row>
+    <row r="89" spans="1:23" ht="12">
+      <c r="A89" s="31">
+        <v>42738</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A88" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A89" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+      <c r="F89" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
       <c r="K89" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
     </row>
     <row r="90" spans="1:23" ht="12.75" customHeight="1">
       <c r="A90" s="10">
@@ -10325,16 +10518,16 @@
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>125</v>
+      <c r="E90" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -10343,6 +10536,18 @@
       <c r="K90" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
     </row>
     <row r="91" spans="1:23" ht="12.75" customHeight="1">
       <c r="A91" s="10">
@@ -10350,20 +10555,22 @@
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="I91" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5" t="s">
         <v>39</v>
@@ -10375,22 +10582,22 @@
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G92" s="5"/>
-      <c r="H92" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5" t="s">
         <v>39</v>
@@ -10402,16 +10609,16 @@
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -10427,16 +10634,16 @@
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>94</v>
+        <v>172</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -10446,194 +10653,182 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="12">
-      <c r="A95" s="36">
-        <v>42736</v>
-      </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D95" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E95" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
+    <row r="95" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A95" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-    </row>
-    <row r="96" spans="1:23" ht="12">
-      <c r="A96" s="36">
-        <v>42736</v>
-      </c>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
+    </row>
+    <row r="96" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A96" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-    </row>
-    <row r="97" spans="1:13" ht="12">
-      <c r="A97" s="36">
-        <v>42736</v>
-      </c>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E97" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="F97" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
+    </row>
+    <row r="97" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A97" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-    </row>
-    <row r="98" spans="1:13" ht="12">
-      <c r="A98" s="36">
-        <v>42736</v>
-      </c>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F98" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
+    </row>
+    <row r="98" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A98" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-    </row>
-    <row r="99" spans="1:13" ht="12">
-      <c r="A99" s="36">
-        <v>42736</v>
-      </c>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="F99" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
+    </row>
+    <row r="99" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A99" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-    </row>
-    <row r="100" spans="1:13" ht="12">
-      <c r="A100" s="36">
-        <v>42736</v>
-      </c>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E100" s="37" t="s">
+    </row>
+    <row r="100" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A100" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F100" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
+      <c r="F100" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-    </row>
-    <row r="101" spans="1:13" ht="12">
-      <c r="A101" s="36">
-        <v>42736</v>
-      </c>
-      <c r="B101" s="37"/>
-      <c r="C101" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="E101" s="37" t="s">
+    </row>
+    <row r="101" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A101" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
+      <c r="F101" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
     </row>
     <row r="102" spans="1:13" ht="12">
       <c r="A102" s="36">
@@ -10641,16 +10836,16 @@
       </c>
       <c r="B102" s="37"/>
       <c r="C102" s="37" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D102" s="37" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="F102" s="37" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
@@ -10668,16 +10863,16 @@
       </c>
       <c r="B103" s="37"/>
       <c r="C103" s="37" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="F103" s="37" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
@@ -10695,16 +10890,16 @@
       </c>
       <c r="B104" s="37"/>
       <c r="C104" s="37" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F104" s="37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
@@ -10722,16 +10917,16 @@
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="37" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F105" s="37" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
@@ -10749,16 +10944,16 @@
       </c>
       <c r="B106" s="37"/>
       <c r="C106" s="37" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="F106" s="37" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
@@ -10776,16 +10971,16 @@
       </c>
       <c r="B107" s="37"/>
       <c r="C107" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F107" s="37" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
@@ -10803,16 +10998,16 @@
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="F108" s="37" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
@@ -10830,16 +11025,16 @@
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>94</v>
       </c>
       <c r="F109" s="37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
@@ -10857,16 +11052,16 @@
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E110" s="37" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="F110" s="37" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
@@ -10884,16 +11079,16 @@
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F111" s="37" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
@@ -10911,16 +11106,16 @@
       </c>
       <c r="B112" s="37"/>
       <c r="C112" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E112" s="37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F112" s="37" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
@@ -10938,16 +11133,16 @@
       </c>
       <c r="B113" s="37"/>
       <c r="C113" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D113" s="37" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E113" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F113" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="F113" s="37" t="s">
-        <v>200</v>
       </c>
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
@@ -10965,16 +11160,16 @@
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E114" s="37" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F114" s="37" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
@@ -10992,16 +11187,16 @@
       </c>
       <c r="B115" s="37"/>
       <c r="C115" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F115" s="37" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
@@ -11013,13 +11208,202 @@
       <c r="L115" s="37"/>
       <c r="M115" s="37"/>
     </row>
+    <row r="116" spans="1:13" ht="12">
+      <c r="A116" s="36">
+        <v>42736</v>
+      </c>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D116" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+    </row>
+    <row r="117" spans="1:13" ht="12">
+      <c r="A117" s="36">
+        <v>42736</v>
+      </c>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+    </row>
+    <row r="118" spans="1:13" ht="12">
+      <c r="A118" s="36">
+        <v>42736</v>
+      </c>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+    </row>
+    <row r="119" spans="1:13" ht="12">
+      <c r="A119" s="36">
+        <v>42736</v>
+      </c>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E119" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F119" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L119" s="37"/>
+      <c r="M119" s="37"/>
+    </row>
+    <row r="120" spans="1:13" ht="12">
+      <c r="A120" s="36">
+        <v>42736</v>
+      </c>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F120" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+    </row>
+    <row r="121" spans="1:13" ht="12">
+      <c r="A121" s="36">
+        <v>42736</v>
+      </c>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F121" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+    </row>
+    <row r="122" spans="1:13" ht="12">
+      <c r="A122" s="36">
+        <v>42736</v>
+      </c>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D122" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:M115"/>
+  <autoFilter ref="A3:M122"/>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B940">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B947">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A940">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A947">
       <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
@@ -11470,7 +11854,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -11506,31 +11890,31 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>31</v>
@@ -11571,28 +11955,28 @@
         <v>43</v>
       </c>
       <c r="H3" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>214</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>215</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>36</v>
@@ -11616,13 +12000,13 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -11652,13 +12036,13 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
@@ -11688,19 +12072,19 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="G6" s="5">
         <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>50</v>
@@ -11734,19 +12118,19 @@
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="G7" s="5">
         <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>53</v>
@@ -11770,10 +12154,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>58</v>
@@ -11782,7 +12166,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>56</v>
@@ -11828,7 +12212,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>59</v>
@@ -11873,7 +12257,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>62</v>
@@ -11918,7 +12302,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>64</v>
@@ -11957,13 +12341,13 @@
         <v>66</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="29">
         <v>10</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>66</v>
@@ -12002,13 +12386,13 @@
         <v>68</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G13" s="29">
         <v>11</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>68</v>
@@ -12054,7 +12438,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I14" s="29" t="s">
         <v>70</v>
@@ -12099,7 +12483,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>72</v>
@@ -12144,7 +12528,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I16" s="37" t="s">
         <v>74</v>
@@ -12189,7 +12573,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I17" s="29" t="s">
         <v>76</v>
@@ -12254,7 +12638,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12280,17 +12664,17 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -12314,19 +12698,19 @@
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1">
@@ -12336,16 +12720,16 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1">
@@ -12355,16 +12739,16 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1">
@@ -12374,16 +12758,16 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1">
@@ -12393,16 +12777,16 @@
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1">
@@ -12412,16 +12796,16 @@
         <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="12.75" customHeight="1">
@@ -12431,16 +12815,16 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12.75" customHeight="1">
@@ -12450,16 +12834,16 @@
         <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="12.75" customHeight="1">
@@ -12469,16 +12853,16 @@
         <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -12499,16 +12883,16 @@
         <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H12" s="5"/>
     </row>
@@ -12519,16 +12903,16 @@
         <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -12539,16 +12923,16 @@
         <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -12558,16 +12942,16 @@
         <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1">
@@ -12576,16 +12960,16 @@
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
@@ -12594,16 +12978,16 @@
         <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
@@ -12612,16 +12996,16 @@
         <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
@@ -12630,16 +13014,16 @@
         <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1">
@@ -12648,16 +13032,16 @@
         <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1">
@@ -12665,16 +13049,16 @@
         <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1">
@@ -12682,16 +13066,16 @@
         <v>37</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
@@ -12699,16 +13083,16 @@
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12">
@@ -12752,7 +13136,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -12773,13 +13157,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
@@ -12797,10 +13181,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>43</v>
@@ -12819,10 +13203,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="44">
         <v>1</v>
@@ -12841,10 +13225,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="44">
         <v>2</v>
@@ -12863,10 +13247,10 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" s="44">
         <v>3</v>
@@ -12885,10 +13269,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" s="46">
         <v>4</v>
@@ -12907,10 +13291,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" s="29">
         <v>5</v>
@@ -12935,10 +13319,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" s="29">
         <v>6</v>
@@ -13111,7 +13495,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -13136,13 +13520,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
@@ -13166,10 +13550,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>43</v>
@@ -13194,10 +13578,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" s="44">
         <v>1</v>
@@ -13222,10 +13606,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" s="44">
         <v>2</v>
@@ -13250,10 +13634,10 @@
         <v>37</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" s="46">
         <v>3</v>
@@ -13278,10 +13662,10 @@
         <v>37</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F7" s="29">
         <v>4</v>
@@ -13306,10 +13690,10 @@
         <v>37</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="29">
         <v>5</v>

--- a/docker/ccd-definition-import/data/CCD_Definition_CMC.xlsx
+++ b/docker/ccd-definition-import/data/CCD_Definition_CMC.xlsx
@@ -1,36 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabah/work/hmcts/cmc/cmc-integration-tests/docker/ccd-definition-import/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="AuthorisationCaseEvent" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="AuthorisationCaseField" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="AuthorisationCaseType" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="AuthorisationState" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="CaseEvent" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="CaseEventToFields" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="CaseField" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="CaseType" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="CaseTypeTab" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="ComplexTypes" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="FixedLists" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="Jurisdiction" sheetId="12" r:id="rId14"/>
-    <sheet state="visible" name="SearchInputFields" sheetId="13" r:id="rId15"/>
-    <sheet state="visible" name="SearchResultFields" sheetId="14" r:id="rId16"/>
-    <sheet state="visible" name="State" sheetId="15" r:id="rId17"/>
-    <sheet state="visible" name="UserProfile" sheetId="16" r:id="rId18"/>
-    <sheet state="visible" name="WorkBasketInputFields" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="WorkBasketResultFields" sheetId="18" r:id="rId20"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="1" r:id="rId1"/>
+    <sheet name="AuthorisationCaseField" sheetId="2" r:id="rId2"/>
+    <sheet name="AuthorisationCaseType" sheetId="3" r:id="rId3"/>
+    <sheet name="AuthorisationState" sheetId="4" r:id="rId4"/>
+    <sheet name="CaseEvent" sheetId="5" r:id="rId5"/>
+    <sheet name="CaseEventToFields" sheetId="6" r:id="rId6"/>
+    <sheet name="CaseField" sheetId="7" r:id="rId7"/>
+    <sheet name="CaseType" sheetId="8" r:id="rId8"/>
+    <sheet name="CaseTypeTab" sheetId="9" r:id="rId9"/>
+    <sheet name="ComplexTypes" sheetId="10" r:id="rId10"/>
+    <sheet name="FixedLists" sheetId="11" r:id="rId11"/>
+    <sheet name="Jurisdiction" sheetId="12" r:id="rId12"/>
+    <sheet name="SearchInputFields" sheetId="13" r:id="rId13"/>
+    <sheet name="SearchResultFields" sheetId="14" r:id="rId14"/>
+    <sheet name="State" sheetId="15" r:id="rId15"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId16"/>
+    <sheet name="WorkBasketInputFields" sheetId="17" r:id="rId17"/>
+    <sheet name="WorkBasketResultFields" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">ComplexTypes!$A$3:$M$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ComplexTypes!$A$3:$M$122</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="414">
   <si>
     <t>AuthorisationCaseType</t>
   </si>
@@ -1284,7 +1293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
@@ -1292,123 +1301,128 @@
     <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="168" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFC000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF974806"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF974806"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFC000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFD73A49"/>
       <name val="Consolas"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
@@ -1418,7 +1432,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1434,7 +1448,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1448,12 +1468,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1465,256 +1487,457 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="84">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="2" fontId="9" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="9" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="16" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.29"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="31.14"/>
-    <col customWidth="1" min="5" max="5" width="23.86"/>
-    <col customWidth="1" min="6" max="16" width="14.43"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1957,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="68.25">
+    <row r="2" spans="1:16" ht="65" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -1760,7 +1983,7 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +2013,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +2027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1818,7 +2041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +2069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1860,7 +2083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +2111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1902,7 +2125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1916,7 +2139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1944,7 +2167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +2181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
@@ -1972,7 +2195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1986,7 +2209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2042,7 +2265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
@@ -2070,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2084,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2126,7 +2349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -2140,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
@@ -2154,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -2168,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
@@ -2182,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17" t="s">
@@ -2198,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
@@ -2214,7 +2437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17" t="s">
@@ -2230,7 +2453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17" t="s">
@@ -2246,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
@@ -2262,7 +2485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
@@ -2278,7 +2501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17" t="s">
@@ -2294,7 +2517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
@@ -2310,7 +2533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
@@ -2326,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17" t="s">
@@ -2342,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
@@ -2358,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
@@ -2374,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
@@ -2390,7 +2613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17" t="s">
@@ -2407,35 +2630,36 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="22.43"/>
-    <col customWidth="1" min="5" max="5" width="28.29"/>
-    <col customWidth="1" min="6" max="6" width="39.86"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="24.86"/>
-    <col customWidth="1" min="9" max="9" width="37.0"/>
-    <col customWidth="1" min="10" max="10" width="14.0"/>
-    <col customWidth="1" min="11" max="11" width="20.0"/>
-    <col customWidth="1" min="12" max="23" width="8.86"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="23" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
@@ -2455,7 +2679,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="51.75" customHeight="1">
+    <row r="2" spans="1:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
@@ -2498,7 +2722,7 @@
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2549,9 +2773,9 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="5" t="s">
@@ -2574,9 +2798,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="5" t="s">
@@ -2599,9 +2823,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="5" t="s">
@@ -2624,9 +2848,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="5" t="s">
@@ -2649,9 +2873,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="5" t="s">
@@ -2674,9 +2898,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
@@ -2699,9 +2923,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="5" t="s">
@@ -2724,9 +2948,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="5" t="s">
@@ -2749,9 +2973,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="5" t="s">
@@ -2774,9 +2998,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="5" t="s">
@@ -2799,9 +3023,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="5" t="s">
@@ -2824,9 +3048,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="5" t="s">
@@ -2849,9 +3073,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -2886,9 +3110,9 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="5" t="s">
@@ -2911,9 +3135,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>191</v>
@@ -2931,9 +3155,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>191</v>
@@ -2951,9 +3175,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>191</v>
@@ -2971,9 +3195,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>191</v>
@@ -2991,9 +3215,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>191</v>
@@ -3011,9 +3235,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>195</v>
@@ -3031,9 +3255,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>195</v>
@@ -3051,9 +3275,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>195</v>
@@ -3071,9 +3295,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>195</v>
@@ -3091,9 +3315,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>195</v>
@@ -3111,9 +3335,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>195</v>
@@ -3131,9 +3355,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>195</v>
@@ -3151,9 +3375,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>195</v>
@@ -3171,9 +3395,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>193</v>
@@ -3191,9 +3415,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>193</v>
@@ -3211,9 +3435,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>193</v>
@@ -3231,9 +3455,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>193</v>
@@ -3251,9 +3475,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>193</v>
@@ -3271,9 +3495,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>193</v>
@@ -3291,9 +3515,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>193</v>
@@ -3311,9 +3535,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>193</v>
@@ -3331,9 +3555,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>197</v>
@@ -3351,9 +3575,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>197</v>
@@ -3371,9 +3595,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>197</v>
@@ -3391,9 +3615,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>197</v>
@@ -3411,9 +3635,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>197</v>
@@ -3431,9 +3655,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>197</v>
@@ -3451,9 +3675,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>197</v>
@@ -3471,9 +3695,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>257</v>
@@ -3494,9 +3718,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>257</v>
@@ -3514,9 +3738,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>257</v>
@@ -3534,9 +3758,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>257</v>
@@ -3554,9 +3778,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>257</v>
@@ -3574,9 +3798,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>257</v>
@@ -3594,9 +3818,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>257</v>
@@ -3614,9 +3838,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>266</v>
@@ -3634,9 +3858,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>266</v>
@@ -3654,9 +3878,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B55" s="53"/>
       <c r="C55" s="53" t="s">
@@ -3691,9 +3915,9 @@
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="53" t="s">
@@ -3728,9 +3952,9 @@
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="53" t="s">
@@ -3768,9 +3992,9 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B58" s="53"/>
       <c r="C58" s="53" t="s">
@@ -3805,9 +4029,9 @@
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B59" s="53"/>
       <c r="C59" s="53" t="s">
@@ -3842,9 +4066,9 @@
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B60" s="53"/>
       <c r="C60" s="53" t="s">
@@ -3879,9 +4103,9 @@
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="53" t="s">
@@ -3916,9 +4140,9 @@
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="53" t="s">
@@ -3953,9 +4177,9 @@
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B63" s="53"/>
       <c r="C63" s="53" t="s">
@@ -3993,9 +4217,9 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B64" s="53"/>
       <c r="C64" s="53" t="s">
@@ -4033,9 +4257,9 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B65" s="53"/>
       <c r="C65" s="53" t="s">
@@ -4070,9 +4294,9 @@
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B66" s="53"/>
       <c r="C66" s="53" t="s">
@@ -4107,9 +4331,9 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B67" s="53"/>
       <c r="C67" s="53" t="s">
@@ -4149,9 +4373,9 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B68" s="53"/>
       <c r="C68" s="53" t="s">
@@ -4191,9 +4415,9 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B69" s="53"/>
       <c r="C69" s="53" t="s">
@@ -4231,9 +4455,9 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B70" s="53"/>
       <c r="C70" s="53" t="s">
@@ -4271,9 +4495,9 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B71" s="53"/>
       <c r="C71" s="53" t="s">
@@ -4311,9 +4535,9 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B72" s="53"/>
       <c r="C72" s="53" t="s">
@@ -4353,9 +4577,9 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B73" s="53"/>
       <c r="C73" s="53" t="s">
@@ -4393,9 +4617,9 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B74" s="53"/>
       <c r="C74" s="53" t="s">
@@ -4430,9 +4654,9 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="53" t="s">
@@ -4469,9 +4693,9 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B76" s="53"/>
       <c r="C76" s="53" t="s">
@@ -4506,9 +4730,9 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B77" s="53"/>
       <c r="C77" s="53" t="s">
@@ -4543,9 +4767,9 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="60">
-        <v>42737.0</v>
+        <v>42737</v>
       </c>
       <c r="B78" s="53"/>
       <c r="C78" s="53" t="s">
@@ -4580,9 +4804,9 @@
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="53" t="s">
@@ -4617,9 +4841,9 @@
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B80" s="53"/>
       <c r="C80" s="53" t="s">
@@ -4654,9 +4878,9 @@
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B81" s="53"/>
       <c r="C81" s="53" t="s">
@@ -4691,9 +4915,9 @@
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B82" s="53"/>
       <c r="C82" s="53" t="s">
@@ -4730,9 +4954,9 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B83" s="53"/>
       <c r="C83" s="53" t="s">
@@ -4767,9 +4991,9 @@
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="53" t="s">
@@ -4804,9 +5028,9 @@
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="60">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B85" s="53"/>
       <c r="C85" s="53" t="s">
@@ -4841,9 +5065,9 @@
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="61">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B86" s="62"/>
       <c r="C86" s="62" t="s">
@@ -4878,9 +5102,9 @@
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="60">
-        <v>42737.0</v>
+        <v>42737</v>
       </c>
       <c r="B87" s="53"/>
       <c r="C87" s="53" t="s">
@@ -4915,9 +5139,9 @@
       <c r="V87" s="50"/>
       <c r="W87" s="50"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="60">
-        <v>42737.0</v>
+        <v>42737</v>
       </c>
       <c r="B88" s="53"/>
       <c r="C88" s="53" t="s">
@@ -4952,9 +5176,9 @@
       <c r="V88" s="50"/>
       <c r="W88" s="50"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="60">
-        <v>42738.0</v>
+        <v>42738</v>
       </c>
       <c r="B89" s="30"/>
       <c r="C89" s="30" t="s">
@@ -4989,9 +5213,9 @@
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="5" t="s">
@@ -5026,9 +5250,9 @@
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="5" t="s">
@@ -5053,9 +5277,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="5" t="s">
@@ -5080,9 +5304,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B93" s="29"/>
       <c r="C93" s="5" t="s">
@@ -5105,9 +5329,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B94" s="29"/>
       <c r="C94" s="5" t="s">
@@ -5130,9 +5354,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B95" s="29"/>
       <c r="C95" s="5" t="s">
@@ -5155,9 +5379,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B96" s="29"/>
       <c r="C96" s="5" t="s">
@@ -5180,9 +5404,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="5" t="s">
@@ -5205,9 +5429,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="5" t="s">
@@ -5230,9 +5454,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="5" t="s">
@@ -5257,9 +5481,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B100" s="29"/>
       <c r="C100" s="5" t="s">
@@ -5282,9 +5506,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B101" s="29"/>
       <c r="C101" s="5" t="s">
@@ -5307,9 +5531,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15" t="s">
@@ -5334,9 +5558,9 @@
       <c r="L102" s="15"/>
       <c r="M102" s="15"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15" t="s">
@@ -5361,9 +5585,9 @@
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="15" t="s">
@@ -5388,9 +5612,9 @@
       <c r="L104" s="15"/>
       <c r="M104" s="15"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="15" t="s">
@@ -5415,9 +5639,9 @@
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="15" t="s">
@@ -5442,9 +5666,9 @@
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="15" t="s">
@@ -5469,9 +5693,9 @@
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B108" s="15"/>
       <c r="C108" s="15" t="s">
@@ -5496,9 +5720,9 @@
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="15" t="s">
@@ -5523,9 +5747,9 @@
       <c r="L109" s="15"/>
       <c r="M109" s="15"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B110" s="15"/>
       <c r="C110" s="15" t="s">
@@ -5550,9 +5774,9 @@
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B111" s="15"/>
       <c r="C111" s="15" t="s">
@@ -5577,9 +5801,9 @@
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="15" t="s">
@@ -5604,9 +5828,9 @@
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B113" s="64"/>
       <c r="C113" s="64" t="s">
@@ -5644,9 +5868,9 @@
       <c r="Y113" s="67"/>
       <c r="Z113" s="67"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B114" s="64"/>
       <c r="C114" s="64" t="s">
@@ -5684,9 +5908,9 @@
       <c r="Y114" s="67"/>
       <c r="Z114" s="67"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B115" s="64"/>
       <c r="C115" s="64" t="s">
@@ -5724,9 +5948,9 @@
       <c r="Y115" s="67"/>
       <c r="Z115" s="67"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B116" s="64"/>
       <c r="C116" s="64" t="s">
@@ -5766,9 +5990,9 @@
       <c r="Y116" s="67"/>
       <c r="Z116" s="67"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B117" s="64"/>
       <c r="C117" s="64" t="s">
@@ -5806,9 +6030,9 @@
       <c r="Y117" s="67"/>
       <c r="Z117" s="67"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B118" s="64"/>
       <c r="C118" s="64" t="s">
@@ -5848,9 +6072,9 @@
       <c r="Y118" s="67"/>
       <c r="Z118" s="67"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B119" s="64"/>
       <c r="C119" s="64" t="s">
@@ -5888,9 +6112,9 @@
       <c r="Y119" s="67"/>
       <c r="Z119" s="67"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B120" s="64"/>
       <c r="C120" s="64" t="s">
@@ -5928,9 +6152,9 @@
       <c r="Y120" s="67"/>
       <c r="Z120" s="67"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B121" s="64"/>
       <c r="C121" s="64" t="s">
@@ -5968,9 +6192,9 @@
       <c r="Y121" s="67"/>
       <c r="Z121" s="67"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="63">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B122" s="64"/>
       <c r="C122" s="64" t="s">
@@ -6009,34 +6233,35 @@
       <c r="Z122" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$3:$M$122"/>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B947">
+  <autoFilter ref="A3:M122" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B947" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A947">
-      <formula1>42736.0</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A947" xr:uid="{00000000-0002-0000-0900-000001000000}">
+      <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.14"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="4" width="31.71"/>
-    <col customWidth="1" min="5" max="5" width="28.29"/>
-    <col customWidth="1" min="6" max="15" width="8.86"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="15" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -6056,7 +6281,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -6079,7 +6304,7 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -6106,7 +6331,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="55"/>
       <c r="B4" s="29"/>
       <c r="C4" s="5" t="s">
@@ -6119,7 +6344,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="55"/>
       <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
@@ -6132,7 +6357,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="55"/>
       <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
@@ -6145,7 +6370,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="55"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
@@ -6158,7 +6383,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28"/>
       <c r="B8" s="42"/>
       <c r="C8" s="5" t="s">
@@ -6171,7 +6396,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
@@ -6184,7 +6409,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="C10" s="5" t="s">
         <v>198</v>
       </c>
@@ -6195,7 +6420,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="C11" s="53" t="s">
         <v>205</v>
       </c>
@@ -6206,7 +6431,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="C12" s="53" t="s">
         <v>205</v>
       </c>
@@ -6217,7 +6442,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="C13" s="53" t="s">
         <v>205</v>
       </c>
@@ -6228,7 +6453,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="56" t="s">
         <v>212</v>
       </c>
@@ -6239,7 +6464,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="C15" s="56" t="s">
         <v>212</v>
       </c>
@@ -6250,7 +6475,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="C16" s="57" t="s">
         <v>217</v>
       </c>
@@ -6261,7 +6486,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="3:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C17" s="57" t="s">
         <v>217</v>
       </c>
@@ -6272,7 +6497,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="3:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C18" s="57" t="s">
         <v>217</v>
       </c>
@@ -6283,7 +6508,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="3:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C19" s="57" t="s">
         <v>224</v>
       </c>
@@ -6294,7 +6519,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="3:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C20" s="57" t="s">
         <v>224</v>
       </c>
@@ -6305,7 +6530,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="3:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C21" s="57" t="s">
         <v>224</v>
       </c>
@@ -6317,34 +6542,35 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B978">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B978" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A978">
-      <formula1>42736.0</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A978" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+      <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.14"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="18.14"/>
-    <col customWidth="1" min="5" max="5" width="43.86"/>
-    <col customWidth="1" min="6" max="15" width="8.86"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="6" max="15" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>348</v>
       </c>
@@ -6364,7 +6590,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
@@ -6387,7 +6613,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -6414,9 +6640,9 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="5" t="s">
@@ -6429,35 +6655,35 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="69"/>
       <c r="B5" s="69"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="69"/>
       <c r="B6" s="69"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="69"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="70"/>
       <c r="B8" s="69"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="70"/>
       <c r="B9" s="69"/>
       <c r="C9" s="5"/>
@@ -6465,7 +6691,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="69"/>
       <c r="C10" s="5"/>
@@ -6473,77 +6699,77 @@
       <c r="E10" s="5"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="70"/>
       <c r="B11" s="69"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="70"/>
       <c r="B12" s="69"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="70"/>
       <c r="B13" s="69"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="69"/>
       <c r="B14" s="69"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="69"/>
       <c r="B15" s="69"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="69"/>
       <c r="B16" s="69"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="69"/>
       <c r="B17" s="69"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="69"/>
       <c r="B18" s="69"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="69"/>
       <c r="B19" s="69"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="69"/>
       <c r="B20" s="69"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="69"/>
       <c r="B21" s="69"/>
       <c r="C21" s="5"/>
@@ -6551,36 +6777,37 @@
       <c r="E21" s="5"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A1000">
-      <formula1>42736.0</formula1>
+  <dataValidations count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A1000" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after LiveFrom" sqref="B4:B1000">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after LiveFrom" sqref="B4:B1000" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.86"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="30.14"/>
-    <col customWidth="1" min="4" max="4" width="31.43"/>
-    <col customWidth="1" min="5" max="5" width="23.14"/>
-    <col customWidth="1" min="6" max="6" width="15.29"/>
-    <col customWidth="1" min="7" max="10" width="8.86"/>
-    <col customWidth="1" min="11" max="16" width="14.43"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>351</v>
       </c>
@@ -6596,7 +6823,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="23.25">
+    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -6616,7 +6843,7 @@
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -6640,9 +6867,9 @@
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="73"/>
       <c r="C4" s="5" t="s">
@@ -6655,16 +6882,16 @@
         <v>92</v>
       </c>
       <c r="F4" s="46">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="73"/>
       <c r="C5" s="5" t="s">
@@ -6677,16 +6904,16 @@
         <v>353</v>
       </c>
       <c r="F5" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="73"/>
       <c r="C6" s="5" t="s">
@@ -6699,16 +6926,16 @@
         <v>354</v>
       </c>
       <c r="F6" s="46">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="74"/>
       <c r="C7" s="14" t="s">
@@ -6721,16 +6948,16 @@
         <v>355</v>
       </c>
       <c r="F7" s="49">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="14" t="s">
@@ -6743,7 +6970,7 @@
         <v>98</v>
       </c>
       <c r="F8" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -6756,9 +6983,9 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="14" t="s">
@@ -6771,14 +6998,14 @@
         <v>107</v>
       </c>
       <c r="F9" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="73"/>
       <c r="C10" s="5"/>
@@ -6790,7 +7017,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="73"/>
       <c r="C11" s="5"/>
@@ -6802,7 +7029,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="73"/>
       <c r="C12" s="5"/>
@@ -6814,7 +7041,7 @@
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="73"/>
       <c r="C13" s="5"/>
@@ -6826,7 +7053,7 @@
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="C14" s="46"/>
@@ -6838,7 +7065,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="46"/>
@@ -6850,7 +7077,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="C16" s="46"/>
@@ -6862,7 +7089,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="46"/>
@@ -6874,7 +7101,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="46"/>
@@ -6886,7 +7113,7 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="C19" s="46"/>
@@ -6899,41 +7126,42 @@
       <c r="J19" s="46"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A997">
-      <formula1>42736.0</formula1>
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A997" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7 F10:F997">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7 F10:F997" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B8:B9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B8:B9" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>IF((DATEDIF(A8,B8,"d")&gt;0),B8)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B7 B10:B997">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B7 B10:B997" xr:uid="{00000000-0002-0000-0C00-000003000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.43"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="31.43"/>
-    <col customWidth="1" min="5" max="5" width="28.29"/>
-    <col customWidth="1" min="6" max="6" width="12.71"/>
-    <col customWidth="1" min="7" max="16" width="8.86"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
@@ -6953,7 +7181,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="23.25">
+    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -6979,7 +7207,7 @@
       <c r="O2" s="71"/>
       <c r="P2" s="71"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -7009,9 +7237,9 @@
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="5" t="s">
@@ -7024,7 +7252,7 @@
         <v>92</v>
       </c>
       <c r="F4" s="46">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
@@ -7037,9 +7265,9 @@
       <c r="O4" s="46"/>
       <c r="P4" s="46"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="5" t="s">
@@ -7052,7 +7280,7 @@
         <v>358</v>
       </c>
       <c r="F5" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
@@ -7065,9 +7293,9 @@
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="76">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="14" t="s">
@@ -7080,7 +7308,7 @@
         <v>355</v>
       </c>
       <c r="F6" s="49">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
@@ -7093,9 +7321,9 @@
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="76">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="14" t="s">
@@ -7108,7 +7336,7 @@
         <v>98</v>
       </c>
       <c r="F7" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
@@ -7121,9 +7349,9 @@
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="76">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="14" t="s">
@@ -7136,7 +7364,7 @@
         <v>107</v>
       </c>
       <c r="F8" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
@@ -7149,7 +7377,7 @@
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -7167,7 +7395,7 @@
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -7185,7 +7413,7 @@
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -7203,7 +7431,7 @@
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -7221,7 +7449,7 @@
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -7239,7 +7467,7 @@
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -7257,7 +7485,7 @@
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -7275,7 +7503,7 @@
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -7293,7 +7521,7 @@
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -7311,7 +7539,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -7329,7 +7557,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="46"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -7348,42 +7576,43 @@
       <c r="P19" s="46"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A998">
-      <formula1>42736.0</formula1>
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A998" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F6 F9:F998">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F6 F9:F998" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B7:B8">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B7:B8" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>IF((DATEDIF(A7,B7,"d")&gt;0),B7)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6 B9:B998">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6 B9:B998" xr:uid="{00000000-0002-0000-0D00-000003000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.29"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="39.43"/>
-    <col customWidth="1" min="5" max="5" width="31.71"/>
-    <col customWidth="1" min="6" max="6" width="32.0"/>
-    <col customWidth="1" min="7" max="7" width="12.71"/>
-    <col customWidth="1" min="8" max="17" width="8.86"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="17" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>359</v>
       </c>
@@ -7403,7 +7632,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="39.75" customHeight="1">
+    <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -7424,7 +7653,7 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -7447,9 +7676,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
@@ -7465,12 +7694,12 @@
         <v>362</v>
       </c>
       <c r="G4" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
@@ -7486,12 +7715,12 @@
         <v>364</v>
       </c>
       <c r="G5" s="5">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
@@ -7507,7 +7736,7 @@
         <v>366</v>
       </c>
       <c r="G6" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -7520,9 +7749,9 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
@@ -7538,12 +7767,12 @@
         <v>368</v>
       </c>
       <c r="G7" s="5">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
@@ -7559,12 +7788,12 @@
         <v>142</v>
       </c>
       <c r="G8" s="5">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="14" t="s">
@@ -7580,12 +7809,12 @@
         <v>145</v>
       </c>
       <c r="G9" s="14">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="14" t="s">
@@ -7601,12 +7830,12 @@
         <v>146</v>
       </c>
       <c r="G10" s="14">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="14" t="s">
@@ -7622,12 +7851,12 @@
         <v>147</v>
       </c>
       <c r="G11" s="14">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="14" t="s">
@@ -7643,12 +7872,12 @@
         <v>370</v>
       </c>
       <c r="G12" s="14">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="14" t="s">
@@ -7664,12 +7893,12 @@
         <v>371</v>
       </c>
       <c r="G13" s="14">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="14" t="s">
@@ -7685,12 +7914,12 @@
         <v>150</v>
       </c>
       <c r="G14" s="14">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="14" t="s">
@@ -7706,12 +7935,12 @@
         <v>151</v>
       </c>
       <c r="G15" s="14">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="14" t="s">
@@ -7727,12 +7956,12 @@
         <v>152</v>
       </c>
       <c r="G16" s="14">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="14" t="s">
@@ -7748,43 +7977,44 @@
         <v>153</v>
       </c>
       <c r="G17" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B981">
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B981" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A981">
-      <formula1>42736.0</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A981" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G981">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G981" xr:uid="{00000000-0002-0000-0E00-000002000000}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.14"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="38.43"/>
-    <col customWidth="1" min="4" max="4" width="28.43"/>
-    <col customWidth="1" min="5" max="5" width="26.86"/>
-    <col customWidth="1" min="6" max="6" width="22.86"/>
-    <col customWidth="1" min="7" max="7" width="24.43"/>
-    <col customWidth="1" min="8" max="16" width="11.43"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="16" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>372</v>
       </c>
@@ -7810,11 +8040,11 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -7844,9 +8074,9 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="78">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>377</v>
@@ -7861,9 +8091,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="78">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>379</v>
@@ -7878,9 +8108,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="80">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C6" t="s">
         <v>380</v>
@@ -7895,9 +8125,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -7913,9 +8143,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -7931,9 +8161,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
@@ -7949,9 +8179,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
@@ -7967,9 +8197,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
@@ -7985,9 +8215,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
@@ -8003,9 +8233,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
@@ -8021,9 +8251,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
@@ -8039,9 +8269,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
@@ -8057,9 +8287,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -8075,9 +8305,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
@@ -8093,9 +8323,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
@@ -8111,9 +8341,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
@@ -8129,9 +8359,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -8147,9 +8377,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -8165,9 +8395,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
@@ -8183,9 +8413,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -8201,9 +8431,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
@@ -8219,9 +8449,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
@@ -8237,9 +8467,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
@@ -8255,9 +8485,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="81">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
@@ -8273,9 +8503,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="81">
-        <v>42737.0</v>
+        <v>42737</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
@@ -8291,9 +8521,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="81">
-        <v>42738.0</v>
+        <v>42738</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
@@ -8309,9 +8539,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="81">
-        <v>42739.0</v>
+        <v>42739</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
@@ -8327,9 +8557,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="81">
-        <v>42740.0</v>
+        <v>42740</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
@@ -8345,9 +8575,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="81">
-        <v>42742.0</v>
+        <v>42742</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="82" t="s">
@@ -8363,9 +8593,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="81">
-        <v>42743.0</v>
+        <v>42743</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="82" t="s">
@@ -8381,9 +8611,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="81">
-        <v>42744.0</v>
+        <v>42744</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="82" t="s">
@@ -8399,9 +8629,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="81">
-        <v>42744.0</v>
+        <v>42744</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="82" t="s">
@@ -8417,9 +8647,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="81">
-        <v>42744.0</v>
+        <v>42744</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="83" t="s">
@@ -8435,9 +8665,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="81">
-        <v>42744.0</v>
+        <v>42744</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="83" t="s">
@@ -8455,25 +8685,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C5"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="22.86"/>
-    <col customWidth="1" min="4" max="4" width="32.43"/>
-    <col customWidth="1" min="5" max="5" width="38.0"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>412</v>
       </c>
@@ -8489,7 +8720,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="23.25">
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -8505,7 +8736,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -8525,9 +8756,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="73"/>
       <c r="C4" s="5" t="s">
@@ -8540,12 +8771,12 @@
         <v>92</v>
       </c>
       <c r="F4" s="46">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="73"/>
       <c r="C5" s="5" t="s">
@@ -8558,12 +8789,12 @@
         <v>353</v>
       </c>
       <c r="F5" s="46">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="73"/>
       <c r="C6" s="5" t="s">
@@ -8576,12 +8807,12 @@
         <v>354</v>
       </c>
       <c r="F6" s="46">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="74"/>
       <c r="C7" s="14" t="s">
@@ -8594,12 +8825,12 @@
         <v>355</v>
       </c>
       <c r="F7" s="49">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="14" t="s">
@@ -8612,12 +8843,12 @@
         <v>98</v>
       </c>
       <c r="F8" s="14">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="14" t="s">
@@ -8630,46 +8861,47 @@
         <v>107</v>
       </c>
       <c r="F9" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9">
-      <formula1>42736.0</formula1>
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-1000-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7" xr:uid="{00000000-0002-0000-1000-000001000000}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B8:B9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B8:B9" xr:uid="{00000000-0002-0000-1000-000002000000}">
       <formula1>IF((DATEDIF(A8,B8,"d")&gt;0),B8)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B7">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B7" xr:uid="{00000000-0002-0000-1000-000003000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.43"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="4" max="4" width="16.43"/>
-    <col customWidth="1" min="5" max="5" width="19.29"/>
-    <col customWidth="1" min="6" max="6" width="12.71"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="8" max="16" width="8.86"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>413</v>
       </c>
@@ -8689,7 +8921,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="45.75">
+    <row r="2" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
@@ -8715,7 +8947,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -8745,9 +8977,9 @@
       <c r="O3" s="75"/>
       <c r="P3" s="75"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="5" t="s">
@@ -8760,7 +8992,7 @@
         <v>92</v>
       </c>
       <c r="F4" s="46">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
@@ -8773,9 +9005,9 @@
       <c r="O4" s="46"/>
       <c r="P4" s="46"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="5" t="s">
@@ -8788,7 +9020,7 @@
         <v>358</v>
       </c>
       <c r="F5" s="46">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
@@ -8801,7 +9033,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="46"/>
       <c r="C6" s="5"/>
@@ -8819,7 +9051,7 @@
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="46"/>
       <c r="C7" s="5"/>
@@ -8837,7 +9069,7 @@
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="46"/>
       <c r="C8" s="5"/>
@@ -8855,7 +9087,7 @@
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="46"/>
       <c r="C9" s="5"/>
@@ -8873,7 +9105,7 @@
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="73"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -8891,7 +9123,7 @@
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="73"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -8909,7 +9141,7 @@
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="73"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -8927,7 +9159,7 @@
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="73"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -8945,7 +9177,7 @@
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -8963,7 +9195,7 @@
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -8981,7 +9213,7 @@
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -8999,7 +9231,7 @@
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -9017,7 +9249,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -9035,7 +9267,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="46"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="73"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -9053,7 +9285,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="73"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -9071,7 +9303,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -9090,37 +9322,38 @@
       <c r="P21" s="46"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A5">
-      <formula1>42736.0</formula1>
+  <dataValidations count="3">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A5" xr:uid="{00000000-0002-0000-1100-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F1000">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F1000" xr:uid="{00000000-0002-0000-1100-000001000000}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B1000">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B1000" xr:uid="{00000000-0002-0000-1100-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.0"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="43.71"/>
-    <col customWidth="1" min="5" max="5" width="22.0"/>
-    <col customWidth="1" min="6" max="16" width="14.43"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -9139,7 +9372,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="68.25">
+    <row r="2" spans="1:16" ht="65" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
@@ -9165,7 +9398,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -9195,7 +9428,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -9209,7 +9442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
@@ -9223,7 +9456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
@@ -9237,7 +9470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
@@ -9251,7 +9484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
@@ -9265,7 +9498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
@@ -9279,7 +9512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9293,7 +9526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
@@ -9307,7 +9540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
@@ -9321,7 +9554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
@@ -9335,7 +9568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
@@ -9349,7 +9582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
@@ -9363,7 +9596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
@@ -9377,7 +9610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
@@ -9391,7 +9624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
@@ -9405,7 +9638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
@@ -9419,7 +9652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
@@ -9433,7 +9666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
@@ -9447,7 +9680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
@@ -9461,7 +9694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
@@ -9475,7 +9708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
@@ -9489,7 +9722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
@@ -9503,7 +9736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
@@ -9517,7 +9750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
@@ -9531,7 +9764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -9545,7 +9778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
@@ -9559,7 +9792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
@@ -9573,7 +9806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
@@ -9587,7 +9820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C32" s="5" t="s">
         <v>12</v>
       </c>
@@ -9601,7 +9834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C33" s="5" t="s">
         <v>12</v>
       </c>
@@ -9615,7 +9848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
@@ -9629,7 +9862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
@@ -9643,7 +9876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C36" s="5" t="s">
         <v>12</v>
       </c>
@@ -9657,7 +9890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C37" s="5" t="s">
         <v>12</v>
       </c>
@@ -9671,7 +9904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C38" s="5" t="s">
         <v>12</v>
       </c>
@@ -9685,7 +9918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C39" s="5" t="s">
         <v>12</v>
       </c>
@@ -9699,7 +9932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
@@ -9713,7 +9946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
@@ -9727,7 +9960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C42" s="5" t="s">
         <v>12</v>
       </c>
@@ -9741,7 +9974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C43" s="5" t="s">
         <v>12</v>
       </c>
@@ -9755,7 +9988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C44" s="5" t="s">
         <v>12</v>
       </c>
@@ -9769,7 +10002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C45" s="5" t="s">
         <v>12</v>
       </c>
@@ -9783,7 +10016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
@@ -9797,7 +10030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
@@ -9811,7 +10044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C48" s="5" t="s">
         <v>12</v>
       </c>
@@ -9825,7 +10058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C49" s="5" t="s">
         <v>12</v>
       </c>
@@ -9839,7 +10072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
@@ -9853,7 +10086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C51" s="5" t="s">
         <v>12</v>
       </c>
@@ -9867,7 +10100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C52" s="5" t="s">
         <v>12</v>
       </c>
@@ -9881,7 +10114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C53" s="5" t="s">
         <v>12</v>
       </c>
@@ -9895,7 +10128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C54" s="5" t="s">
         <v>12</v>
       </c>
@@ -9909,7 +10142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
@@ -9923,7 +10156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C56" s="5" t="s">
         <v>12</v>
       </c>
@@ -9937,7 +10170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
         <v>12</v>
       </c>
@@ -9951,7 +10184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C58" s="5" t="s">
         <v>12</v>
       </c>
@@ -9965,7 +10198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -9979,7 +10212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C60" s="5" t="s">
         <v>12</v>
       </c>
@@ -9993,7 +10226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C61" s="5" t="s">
         <v>12</v>
       </c>
@@ -10007,7 +10240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C62" s="5" t="s">
         <v>12</v>
       </c>
@@ -10021,7 +10254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
         <v>12</v>
       </c>
@@ -10035,7 +10268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C64" s="5" t="s">
         <v>12</v>
       </c>
@@ -10049,7 +10282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C65" s="5" t="s">
         <v>12</v>
       </c>
@@ -10063,7 +10296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C66" s="5" t="s">
         <v>12</v>
       </c>
@@ -10077,7 +10310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C67" s="5" t="s">
         <v>12</v>
       </c>
@@ -10091,7 +10324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C68" s="5" t="s">
         <v>12</v>
       </c>
@@ -10105,7 +10338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C69" s="5" t="s">
         <v>12</v>
       </c>
@@ -10119,7 +10352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C70" s="5" t="s">
         <v>12</v>
       </c>
@@ -10133,7 +10366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C71" s="5" t="s">
         <v>12</v>
       </c>
@@ -10147,7 +10380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -10161,7 +10394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C73" s="5" t="s">
         <v>12</v>
       </c>
@@ -10175,7 +10408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C74" s="5" t="s">
         <v>12</v>
       </c>
@@ -10189,7 +10422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C75" s="5" t="s">
         <v>12</v>
       </c>
@@ -10203,7 +10436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C76" s="5" t="s">
         <v>12</v>
       </c>
@@ -10217,7 +10450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C77" s="5" t="s">
         <v>12</v>
       </c>
@@ -10231,7 +10464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C78" s="5" t="s">
         <v>12</v>
       </c>
@@ -10245,7 +10478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C79" s="5" t="s">
         <v>12</v>
       </c>
@@ -10259,7 +10492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
@@ -10273,7 +10506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C81" s="5" t="s">
         <v>12</v>
       </c>
@@ -10287,7 +10520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C82" s="5" t="s">
         <v>12</v>
       </c>
@@ -10301,7 +10534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C83" s="5" t="s">
         <v>12</v>
       </c>
@@ -10315,7 +10548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C84" s="5" t="s">
         <v>12</v>
       </c>
@@ -10329,7 +10562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C85" s="5" t="s">
         <v>12</v>
       </c>
@@ -10343,7 +10576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="3:6" ht="13" x14ac:dyDescent="0.15">
       <c r="C86" s="5" t="s">
         <v>12</v>
       </c>
@@ -10358,25 +10591,26 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.29"/>
-    <col customWidth="1" min="2" max="2" width="19.43"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="15" width="14.43"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="15" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10396,7 +10630,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="68.25">
+    <row r="2" spans="1:15" ht="65" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
@@ -10419,7 +10653,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -10436,7 +10670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -10449,7 +10683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -10462,7 +10696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -10475,7 +10709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
@@ -10489,23 +10723,26 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.43"/>
-    <col customWidth="1" min="4" max="4" width="24.29"/>
-    <col customWidth="1" min="5" max="5" width="38.43"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
@@ -10521,7 +10758,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
@@ -10537,7 +10774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
@@ -10557,9 +10794,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25" t="s">
@@ -10575,9 +10812,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="25" t="s">
@@ -10593,9 +10830,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="25" t="s">
@@ -10611,9 +10848,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25" t="s">
@@ -10629,9 +10866,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="25" t="s">
@@ -10647,9 +10884,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>12</v>
@@ -10664,9 +10901,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>12</v>
@@ -10681,9 +10918,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>12</v>
@@ -10698,9 +10935,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>12</v>
@@ -10715,9 +10952,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>12</v>
@@ -10732,9 +10969,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>12</v>
@@ -10749,9 +10986,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>12</v>
@@ -10766,9 +11003,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>12</v>
@@ -10783,9 +11020,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>12</v>
@@ -10800,9 +11037,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>12</v>
@@ -10817,9 +11054,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="26">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>12</v>
@@ -10834,39 +11071,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:6" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="26">
+        <v>42736</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="22.86"/>
-    <col customWidth="1" min="5" max="5" width="34.71"/>
-    <col customWidth="1" min="6" max="6" width="66.71"/>
-    <col customWidth="1" min="7" max="7" width="12.71"/>
-    <col customWidth="1" min="8" max="8" width="45.43"/>
-    <col customWidth="1" min="9" max="9" width="25.71"/>
-    <col customWidth="1" min="10" max="10" width="29.71"/>
-    <col customWidth="1" min="11" max="11" width="32.0"/>
-    <col customWidth="1" min="12" max="12" width="31.43"/>
-    <col customWidth="1" min="13" max="13" width="29.86"/>
-    <col customWidth="1" min="14" max="14" width="26.71"/>
-    <col customWidth="1" min="15" max="15" width="29.29"/>
-    <col customWidth="1" min="16" max="16" width="23.71"/>
-    <col customWidth="1" min="17" max="17" width="31.14"/>
-    <col customWidth="1" min="18" max="26" width="8.86"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.5" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="31.5" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -10891,7 +11146,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" ht="68.25">
+    <row r="2" spans="1:26" ht="78" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="s">
@@ -10946,7 +11201,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -11005,9 +11260,9 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
@@ -11023,7 +11278,7 @@
         <v>132</v>
       </c>
       <c r="G4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
@@ -11041,9 +11296,9 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" ht="12.0" customHeight="1">
+    <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
@@ -11059,7 +11314,7 @@
         <v>134</v>
       </c>
       <c r="G5" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>60</v>
@@ -11077,9 +11332,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
@@ -11095,7 +11350,7 @@
         <v>136</v>
       </c>
       <c r="G6" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>137</v>
@@ -11123,9 +11378,9 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
@@ -11141,7 +11396,7 @@
         <v>139</v>
       </c>
       <c r="G7" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>140</v>
@@ -11159,9 +11414,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
@@ -11177,7 +11432,7 @@
         <v>142</v>
       </c>
       <c r="G8" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>143</v>
@@ -11205,9 +11460,9 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="14" t="s">
@@ -11223,7 +11478,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>143</v>
@@ -11250,9 +11505,9 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="14" t="s">
@@ -11268,7 +11523,7 @@
         <v>146</v>
       </c>
       <c r="G10" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>143</v>
@@ -11295,9 +11550,9 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="14" t="s">
@@ -11313,7 +11568,7 @@
         <v>147</v>
       </c>
       <c r="G11" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>143</v>
@@ -11340,9 +11595,9 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="14" t="s">
@@ -11358,7 +11613,7 @@
         <v>148</v>
       </c>
       <c r="G12" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>143</v>
@@ -11385,9 +11640,9 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="14" t="s">
@@ -11403,7 +11658,7 @@
         <v>149</v>
       </c>
       <c r="G13" s="14">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>143</v>
@@ -11431,9 +11686,9 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="14" t="s">
@@ -11449,7 +11704,7 @@
         <v>150</v>
       </c>
       <c r="G14" s="14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>143</v>
@@ -11476,9 +11731,9 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="14" t="s">
@@ -11494,7 +11749,7 @@
         <v>151</v>
       </c>
       <c r="G15" s="14">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>143</v>
@@ -11521,9 +11776,9 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
@@ -11539,7 +11794,7 @@
         <v>152</v>
       </c>
       <c r="G16" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>143</v>
@@ -11566,9 +11821,9 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="14" t="s">
@@ -11584,7 +11839,7 @@
         <v>153</v>
       </c>
       <c r="G17" s="14">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>143</v>
@@ -11612,39 +11867,40 @@
       <c r="Y17" s="15"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B15 B17:B979">
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B15 B17:B979" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>IF((DATEDIF(A4,#REF!,"d")&gt;0),#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A15 A17:A979">
-      <formula1>42736.0</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A15 A17:A979" xr:uid="{00000000-0002-0000-0400-000001000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G979">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G979" xr:uid="{00000000-0002-0000-0400-000002000000}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.14"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="24.71"/>
-    <col customWidth="1" min="5" max="6" width="29.14"/>
-    <col customWidth="1" min="7" max="7" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="15.71"/>
-    <col customWidth="1" min="9" max="18" width="8.86"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="18" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -11665,7 +11921,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" ht="54.75" customHeight="1">
+    <row r="2" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -11695,7 +11951,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -11721,7 +11977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="5" t="s">
@@ -11734,13 +11990,13 @@
         <v>39</v>
       </c>
       <c r="F4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28"/>
       <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
@@ -11753,13 +12009,13 @@
         <v>36</v>
       </c>
       <c r="F5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
@@ -11772,13 +12028,13 @@
         <v>37</v>
       </c>
       <c r="F6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
@@ -11791,13 +12047,13 @@
         <v>38</v>
       </c>
       <c r="F7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="5" t="s">
@@ -11810,13 +12066,13 @@
         <v>40</v>
       </c>
       <c r="F8" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
@@ -11829,13 +12085,13 @@
         <v>41</v>
       </c>
       <c r="F9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
       <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
@@ -11848,13 +12104,13 @@
         <v>42</v>
       </c>
       <c r="F10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="29"/>
       <c r="C11" s="5" t="s">
@@ -11867,7 +12123,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>72</v>
@@ -11884,7 +12140,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="5" t="s">
@@ -11897,14 +12153,14 @@
         <v>44</v>
       </c>
       <c r="F12" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
       <c r="C13" s="5" t="s">
@@ -11917,14 +12173,14 @@
         <v>45</v>
       </c>
       <c r="F13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
       <c r="C14" s="5" t="s">
@@ -11937,14 +12193,14 @@
         <v>46</v>
       </c>
       <c r="F14" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -11956,13 +12212,13 @@
         <v>47</v>
       </c>
       <c r="F15" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
       <c r="C16" s="5" t="s">
         <v>12</v>
@@ -11974,13 +12230,13 @@
         <v>48</v>
       </c>
       <c r="F16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="28"/>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -11992,13 +12248,13 @@
         <v>49</v>
       </c>
       <c r="F17" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="28"/>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -12010,13 +12266,13 @@
         <v>50</v>
       </c>
       <c r="F18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -12028,13 +12284,13 @@
         <v>51</v>
       </c>
       <c r="F19" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="28"/>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -12046,13 +12302,13 @@
         <v>52</v>
       </c>
       <c r="F20" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
@@ -12063,13 +12319,13 @@
         <v>53</v>
       </c>
       <c r="F21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
@@ -12080,13 +12336,13 @@
         <v>54</v>
       </c>
       <c r="F22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
@@ -12097,13 +12353,13 @@
         <v>55</v>
       </c>
       <c r="F23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
@@ -12116,7 +12372,7 @@
         <v>39</v>
       </c>
       <c r="F24" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>72</v>
@@ -12133,7 +12389,7 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
@@ -12146,7 +12402,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>72</v>
@@ -12163,7 +12419,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
@@ -12176,7 +12432,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>72</v>
@@ -12193,7 +12449,7 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17" t="s">
@@ -12206,7 +12462,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>72</v>
@@ -12223,7 +12479,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17" t="s">
@@ -12236,7 +12492,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>72</v>
@@ -12253,7 +12509,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
@@ -12266,7 +12522,7 @@
         <v>41</v>
       </c>
       <c r="F29" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>72</v>
@@ -12283,7 +12539,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
@@ -12296,7 +12552,7 @@
         <v>42</v>
       </c>
       <c r="F30" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>72</v>
@@ -12313,7 +12569,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17" t="s">
@@ -12326,7 +12582,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>72</v>
@@ -12343,7 +12599,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17" t="s">
@@ -12356,7 +12612,7 @@
         <v>44</v>
       </c>
       <c r="F32" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>72</v>
@@ -12373,7 +12629,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
@@ -12386,7 +12642,7 @@
         <v>45</v>
       </c>
       <c r="F33" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>72</v>
@@ -12403,7 +12659,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17" t="s">
@@ -12416,7 +12672,7 @@
         <v>46</v>
       </c>
       <c r="F34" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>72</v>
@@ -12433,7 +12689,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17" t="s">
@@ -12446,7 +12702,7 @@
         <v>47</v>
       </c>
       <c r="F35" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>72</v>
@@ -12463,7 +12719,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
@@ -12476,7 +12732,7 @@
         <v>48</v>
       </c>
       <c r="F36" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>72</v>
@@ -12493,7 +12749,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
@@ -12506,7 +12762,7 @@
         <v>49</v>
       </c>
       <c r="F37" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>72</v>
@@ -12523,7 +12779,7 @@
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17" t="s">
@@ -12536,7 +12792,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>72</v>
@@ -12553,7 +12809,7 @@
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
@@ -12566,7 +12822,7 @@
         <v>51</v>
       </c>
       <c r="F39" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>72</v>
@@ -12583,7 +12839,7 @@
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
@@ -12596,7 +12852,7 @@
         <v>52</v>
       </c>
       <c r="F40" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>72</v>
@@ -12613,7 +12869,7 @@
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17" t="s">
@@ -12626,7 +12882,7 @@
         <v>53</v>
       </c>
       <c r="F41" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>72</v>
@@ -12643,7 +12899,7 @@
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
@@ -12656,7 +12912,7 @@
         <v>54</v>
       </c>
       <c r="F42" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>72</v>
@@ -12673,7 +12929,7 @@
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
@@ -12686,7 +12942,7 @@
         <v>55</v>
       </c>
       <c r="F43" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>72</v>
@@ -12704,39 +12960,40 @@
       <c r="R43" s="16"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A991">
-      <formula1>42736.0</formula1>
+  <dataValidations count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A991" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value after LiveFrom date" sqref="B4:B991">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value after LiveFrom date" sqref="B4:B991" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.43"/>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="29.86"/>
-    <col customWidth="1" min="4" max="4" width="41.43"/>
-    <col customWidth="1" min="5" max="5" width="40.86"/>
-    <col customWidth="1" min="6" max="6" width="38.71"/>
-    <col customWidth="1" min="7" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="9" width="14.0"/>
-    <col customWidth="1" min="10" max="10" width="20.29"/>
-    <col customWidth="1" min="11" max="11" width="20.0"/>
-    <col customWidth="1" min="12" max="23" width="8.86"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="7" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="23" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -12756,7 +13013,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="51.75" customHeight="1">
+    <row r="2" spans="1:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -12799,7 +13056,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -12850,9 +13107,9 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
@@ -12875,9 +13132,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
@@ -12900,9 +13157,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
@@ -12927,9 +13184,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="5" t="s">
@@ -12952,9 +13209,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
@@ -12979,9 +13236,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="5" t="s">
@@ -13004,9 +13261,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="5" t="s">
@@ -13029,9 +13286,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="14" t="s">
@@ -13068,9 +13325,9 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="14" t="s">
@@ -13093,9 +13350,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="14" t="s">
@@ -13118,9 +13375,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="14" t="s">
@@ -13145,9 +13402,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="14" t="s">
@@ -13172,9 +13429,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="14" t="s">
@@ -13199,9 +13456,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="14" t="s">
@@ -13226,9 +13483,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="14" t="s">
@@ -13251,9 +13508,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="14" t="s">
@@ -13290,9 +13547,9 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="14" t="s">
@@ -13315,9 +13572,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="14" t="s">
@@ -13342,9 +13599,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="14" t="s">
@@ -13367,9 +13624,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
@@ -13391,9 +13648,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="36">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
@@ -13431,38 +13688,39 @@
       <c r="W24" s="5"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A988">
-      <formula1>42736.0</formula1>
+  <dataValidations count="2">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A988" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B988">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B988" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.86"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="31.86"/>
-    <col customWidth="1" min="5" max="5" width="15.86"/>
-    <col customWidth="1" min="6" max="6" width="16.29"/>
-    <col customWidth="1" min="7" max="7" width="19.71"/>
-    <col customWidth="1" min="8" max="8" width="23.43"/>
-    <col customWidth="1" min="9" max="9" width="18.43"/>
-    <col customWidth="1" min="10" max="19" width="8.86"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="19" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -13482,7 +13740,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="73.5" customHeight="1">
+    <row r="2" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -13517,7 +13775,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -13556,9 +13814,9 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
@@ -13577,7 +13835,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="40"/>
@@ -13585,7 +13843,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="41"/>
@@ -13593,7 +13851,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="5"/>
@@ -13601,7 +13859,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="5"/>
@@ -13609,7 +13867,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="5"/>
@@ -13617,7 +13875,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
       <c r="B10" s="28"/>
       <c r="C10" s="5"/>
@@ -13625,7 +13883,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
       <c r="B11" s="28"/>
       <c r="C11" s="5"/>
@@ -13633,7 +13891,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="43"/>
       <c r="B12" s="28"/>
       <c r="C12" s="5"/>
@@ -13641,7 +13899,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
       <c r="B13" s="28"/>
       <c r="C13" s="5"/>
@@ -13649,7 +13907,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
       <c r="B14" s="28"/>
       <c r="C14" s="5"/>
@@ -13657,7 +13915,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="44"/>
       <c r="B15" s="28"/>
       <c r="C15" s="5"/>
@@ -13665,7 +13923,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="5"/>
@@ -13673,7 +13931,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="5"/>
@@ -13681,7 +13939,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="5"/>
@@ -13689,7 +13947,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="5"/>
@@ -13697,7 +13955,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="5"/>
@@ -13705,7 +13963,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="5"/>
@@ -13714,37 +13972,38 @@
       <c r="F21" s="5"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B999">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B999" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A999">
-      <formula1>42736.0</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A999" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="8.86"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" min="4" max="4" width="31.71"/>
-    <col customWidth="1" min="5" max="6" width="22.0"/>
-    <col customWidth="1" min="7" max="7" width="16.29"/>
-    <col customWidth="1" min="8" max="8" width="40.86"/>
-    <col customWidth="1" min="9" max="9" width="21.0"/>
-    <col customWidth="1" min="10" max="19" width="8.86"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="19" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -13764,7 +14023,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
@@ -13799,7 +14058,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -13838,9 +14097,9 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="5" t="s">
@@ -13854,13 +14113,13 @@
         <v>172</v>
       </c>
       <c r="G4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -13873,9 +14132,9 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="5" t="s">
@@ -13889,18 +14148,18 @@
         <v>172</v>
       </c>
       <c r="G5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
@@ -13914,18 +14173,18 @@
         <v>172</v>
       </c>
       <c r="G6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="5" t="s">
@@ -13939,18 +14198,18 @@
         <v>172</v>
       </c>
       <c r="G7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="5" t="s">
@@ -13964,18 +14223,18 @@
         <v>172</v>
       </c>
       <c r="G8" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
@@ -13989,18 +14248,18 @@
         <v>172</v>
       </c>
       <c r="G9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="5" t="s">
@@ -14014,18 +14273,18 @@
         <v>172</v>
       </c>
       <c r="G10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="14" t="s">
@@ -14039,18 +14298,18 @@
         <v>174</v>
       </c>
       <c r="G11" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="50">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="14" t="s">
@@ -14064,18 +14323,18 @@
         <v>174</v>
       </c>
       <c r="G12" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>45</v>
       </c>
       <c r="I12" s="50">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="14" t="s">
@@ -14089,18 +14348,18 @@
         <v>174</v>
       </c>
       <c r="G13" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="50">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="14" t="s">
@@ -14114,18 +14373,18 @@
         <v>174</v>
       </c>
       <c r="G14" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I14" s="50">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="14" t="s">
@@ -14139,18 +14398,18 @@
         <v>174</v>
       </c>
       <c r="G15" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="50">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="14" t="s">
@@ -14164,18 +14423,18 @@
         <v>174</v>
       </c>
       <c r="G16" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="50">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="14" t="s">
@@ -14189,18 +14448,18 @@
         <v>174</v>
       </c>
       <c r="G17" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>50</v>
       </c>
       <c r="I17" s="50">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="14" t="s">
@@ -14214,18 +14473,18 @@
         <v>176</v>
       </c>
       <c r="G18" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="50">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="14" t="s">
@@ -14239,18 +14498,18 @@
         <v>178</v>
       </c>
       <c r="G19" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="50">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="14" t="s">
@@ -14264,18 +14523,18 @@
         <v>178</v>
       </c>
       <c r="G20" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="I20" s="50">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="14" t="s">
@@ -14289,18 +14548,18 @@
         <v>180</v>
       </c>
       <c r="G21" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="50">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="14" t="s">
@@ -14314,18 +14573,18 @@
         <v>180</v>
       </c>
       <c r="G22" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="50">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="14" t="s">
@@ -14339,18 +14598,18 @@
         <v>180</v>
       </c>
       <c r="G23" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>54</v>
       </c>
       <c r="I23" s="50">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="51">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
@@ -14364,18 +14623,18 @@
         <v>182</v>
       </c>
       <c r="G24" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="53">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="51">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="15" t="s">
@@ -14389,18 +14648,18 @@
         <v>182</v>
       </c>
       <c r="G25" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H25" s="54" t="s">
         <v>53</v>
       </c>
       <c r="I25" s="53">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="51">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B26" s="52"/>
       <c r="C26" s="15" t="s">
@@ -14414,18 +14673,18 @@
         <v>182</v>
       </c>
       <c r="G26" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="53">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="51">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
@@ -14439,27 +14698,27 @@
         <v>184</v>
       </c>
       <c r="G27" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="53">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A992">
-      <formula1>42736.0</formula1>
+  <dataValidations count="3">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A992" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G992 I4:I992">
-      <formula1>0.0</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G992 I4:I992" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B992">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B992" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>